--- a/src/test/resources/testdata/OrangeHrmData.xlsx
+++ b/src/test/resources/testdata/OrangeHrmData.xlsx
@@ -16,7 +16,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>West Office</t>
+  </si>
+  <si>
+    <t>Buliga</t>
+  </si>
+  <si>
+    <t>Smart Office</t>
+  </si>
+  <si>
+    <t>Ozcan</t>
+  </si>
+  <si>
+    <t>North Office</t>
+  </si>
+  <si>
+    <t>HQ</t>
+  </si>
+  <si>
+    <t>Melibaeva</t>
+  </si>
+  <si>
+    <t>Bobohon</t>
+  </si>
+  <si>
+    <t>Sherzod</t>
+  </si>
+  <si>
+    <t>Yuldosh</t>
+  </si>
+  <si>
+    <t>Usmon</t>
+  </si>
+  <si>
+    <t>Elimdar</t>
+  </si>
+  <si>
+    <t>Arsen</t>
+  </si>
+  <si>
+    <t>Anvar</t>
+  </si>
+  <si>
+    <t>Slavik</t>
+  </si>
+  <si>
+    <t>Lenura</t>
+  </si>
   <si>
     <t>FirstName</t>
   </si>
@@ -30,61 +84,16 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Adnan</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>West Office</t>
-  </si>
-  <si>
-    <t>Arman</t>
-  </si>
-  <si>
-    <t>Buliga</t>
-  </si>
-  <si>
-    <t>Smart Office</t>
-  </si>
-  <si>
-    <t>Alvaro</t>
-  </si>
-  <si>
-    <t>Ozcan</t>
-  </si>
-  <si>
-    <t>North Office</t>
-  </si>
-  <si>
-    <t>Andrei</t>
-  </si>
-  <si>
-    <t>HQ</t>
-  </si>
-  <si>
-    <t>Danny</t>
-  </si>
-  <si>
-    <t>Esin</t>
-  </si>
-  <si>
-    <t>Farrah</t>
-  </si>
-  <si>
-    <t>Fatime</t>
-  </si>
-  <si>
-    <t>Inna</t>
-  </si>
-  <si>
-    <t>Lola</t>
-  </si>
-  <si>
-    <t>Melibaeva</t>
+    <t>Rob</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Johns</t>
+  </si>
+  <si>
+    <t>IT Office</t>
   </si>
 </sst>
 </file>
@@ -427,51 +436,51 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -479,111 +488,111 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
